--- a/pipelines/Overview/General_overview_patient_seqdata.xlsx
+++ b/pipelines/Overview/General_overview_patient_seqdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/f.valzano/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/f.valzano/surfdrive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31B147E-6209-AD4D-8784-790B02FC4C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FA7D53-68EF-6C4A-8A0B-4244CE534120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{1B238948-AEEF-F845-BB9A-615D9D15D92B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{1B238948-AEEF-F845-BB9A-615D9D15D92B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1852,6 +1852,7 @@
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1868,7 +1869,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1890,12 +1891,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,7 +1981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2022,23 +2017,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2367,15 +2361,15 @@
   <dimension ref="A1:AP80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="14.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="84" style="1" customWidth="1"/>
@@ -2396,128 +2390,128 @@
     <col min="22" max="22" width="22.33203125" style="1" customWidth="1"/>
     <col min="23" max="23" width="19.5" style="1" customWidth="1"/>
     <col min="24" max="24" width="26.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="26.33203125" style="33" customWidth="1"/>
-    <col min="26" max="26" width="11" style="33"/>
+    <col min="25" max="25" width="26.33203125" style="32" customWidth="1"/>
+    <col min="26" max="26" width="11" style="32"/>
     <col min="27" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="Q1" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="R1" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="R1" s="28" t="s">
-        <v>455</v>
-      </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="W1" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Y1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="25" t="s">
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AB1" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AC1" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="AD1" s="25" t="s">
+      <c r="AD1" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AE1" s="27" t="s">
         <v>467</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AF1" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="AG1" s="25" t="s">
+      <c r="AG1" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="AH1" s="25" t="s">
+      <c r="AH1" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="AI1" s="25" t="s">
+      <c r="AI1" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="AJ1" s="25" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="AK1" s="25" t="s">
+      <c r="AK1" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="AL1" s="25" t="s">
+      <c r="AL1" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AM1" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="AN1" s="28" t="s">
+      <c r="AN1" s="27" t="s">
         <v>476</v>
       </c>
     </row>
@@ -2572,8 +2566,8 @@
       <c r="V2" s="9"/>
       <c r="W2" s="9"/>
       <c r="X2" s="9"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
       <c r="AA2" s="9" t="s">
         <v>23</v>
       </c>
@@ -2648,14 +2642,13 @@
       <c r="R3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
       <c r="AA3" s="9" t="s">
         <v>31</v>
       </c>
@@ -2744,8 +2737,8 @@
       <c r="X4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
       <c r="AC4" s="9"/>
@@ -2821,8 +2814,8 @@
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
       <c r="X5" s="9"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
       <c r="AA5" s="9"/>
       <c r="AB5" s="9"/>
       <c r="AC5" s="9" t="s">
@@ -2897,8 +2890,8 @@
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="9"/>
@@ -2974,8 +2967,8 @@
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
       <c r="AC7" s="9"/>
@@ -3052,8 +3045,8 @@
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9" t="s">
@@ -3128,8 +3121,8 @@
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="29"/>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="9"/>
@@ -3205,8 +3198,8 @@
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="9" t="s">
@@ -3281,8 +3274,8 @@
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
       <c r="AA11" s="9" t="s">
         <v>105</v>
       </c>
@@ -3364,8 +3357,8 @@
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9" t="s">
@@ -3442,8 +3435,8 @@
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
@@ -3514,8 +3507,8 @@
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
@@ -3586,8 +3579,8 @@
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
@@ -3661,8 +3654,8 @@
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
       <c r="X16" s="9"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
@@ -3735,8 +3728,8 @@
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
       <c r="AA17" s="9" t="s">
         <v>149</v>
       </c>
@@ -3824,8 +3817,8 @@
       <c r="X18" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
       <c r="AA18" s="9" t="s">
         <v>161</v>
       </c>
@@ -3911,8 +3904,8 @@
       <c r="X19" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9" t="s">
@@ -3982,8 +3975,8 @@
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="9"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
@@ -4049,8 +4042,8 @@
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
@@ -4095,8 +4088,8 @@
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
@@ -4155,8 +4148,8 @@
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
@@ -4221,8 +4214,8 @@
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
       <c r="AA24" s="9" t="s">
         <v>198</v>
       </c>
@@ -4307,8 +4300,8 @@
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
       <c r="AA25" s="9" t="s">
         <v>209</v>
       </c>
@@ -4385,8 +4378,8 @@
       <c r="X26" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9" t="s">
@@ -4458,8 +4451,8 @@
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9" t="s">
@@ -4528,8 +4521,8 @@
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
       <c r="AA28" s="9" t="s">
         <v>235</v>
       </c>
@@ -4602,8 +4595,8 @@
       <c r="X29" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9" t="s">
@@ -4673,8 +4666,8 @@
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
       <c r="AA30" s="9" t="s">
         <v>254</v>
       </c>
@@ -4745,8 +4738,8 @@
       <c r="X31" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
       <c r="AA31" s="9" t="s">
         <v>260</v>
       </c>
@@ -4816,8 +4809,8 @@
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9" t="s">
@@ -4882,8 +4875,8 @@
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9" t="s">
@@ -4952,8 +4945,8 @@
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
       <c r="AA34" s="9" t="s">
         <v>287</v>
       </c>
@@ -5023,8 +5016,8 @@
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9" t="s">
@@ -5092,8 +5085,8 @@
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9" t="s">
@@ -5153,8 +5146,8 @@
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
       <c r="AA37" s="9" t="s">
         <v>309</v>
       </c>
@@ -5237,8 +5230,8 @@
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
       <c r="AA38" s="9" t="s">
         <v>318</v>
       </c>
@@ -5308,8 +5301,8 @@
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
       <c r="AA39" s="9" t="s">
         <v>325</v>
       </c>
@@ -5379,8 +5372,8 @@
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
       <c r="AA40" s="9" t="s">
         <v>332</v>
       </c>
@@ -5444,8 +5437,8 @@
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
       <c r="AA41" s="9" t="s">
         <v>338</v>
       </c>
@@ -5518,8 +5511,8 @@
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="30"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
       <c r="AA42" s="9" t="s">
         <v>346</v>
       </c>
@@ -5575,8 +5568,8 @@
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
       <c r="X43" s="9"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="30"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
@@ -5632,8 +5625,8 @@
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
       <c r="AA44" s="9" t="s">
         <v>356</v>
       </c>
@@ -5703,8 +5696,8 @@
       <c r="V45" s="9"/>
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
-      <c r="Y45" s="30"/>
-      <c r="Z45" s="30"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
       <c r="AA45" s="9" t="s">
         <v>363</v>
       </c>
@@ -5774,8 +5767,8 @@
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
-      <c r="Y46" s="30"/>
-      <c r="Z46" s="30"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
       <c r="AA46" s="9" t="s">
         <v>370</v>
       </c>
@@ -5848,8 +5841,8 @@
       <c r="V47" s="9"/>
       <c r="W47" s="9"/>
       <c r="X47" s="9"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="30"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
       <c r="AA47" s="9" t="s">
         <v>374</v>
       </c>
@@ -5926,8 +5919,8 @@
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
       <c r="X48" s="9"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="29"/>
       <c r="AA48" s="9" t="s">
         <v>383</v>
       </c>
@@ -5992,8 +5985,8 @@
       <c r="V49" s="9"/>
       <c r="W49" s="9"/>
       <c r="X49" s="9"/>
-      <c r="Y49" s="30"/>
-      <c r="Z49" s="30"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
       <c r="AA49" s="9" t="s">
         <v>385</v>
       </c>
@@ -6061,8 +6054,8 @@
       <c r="V50" s="9"/>
       <c r="W50" s="9"/>
       <c r="X50" s="9"/>
-      <c r="Y50" s="30"/>
-      <c r="Z50" s="30"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
       <c r="AA50" s="9"/>
       <c r="AB50" s="9"/>
       <c r="AC50" s="9" t="s">
@@ -6135,8 +6128,8 @@
       <c r="V51" s="9"/>
       <c r="W51" s="9"/>
       <c r="X51" s="9"/>
-      <c r="Y51" s="30"/>
-      <c r="Z51" s="30"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
       <c r="AA51" s="9" t="s">
         <v>401</v>
       </c>
@@ -6195,8 +6188,8 @@
       <c r="X52" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="Y52" s="30"/>
-      <c r="Z52" s="30"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
       <c r="AA52" s="9"/>
       <c r="AB52" s="9"/>
       <c r="AC52" s="9"/>
@@ -6247,8 +6240,8 @@
       <c r="X53" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="Y53" s="30"/>
-      <c r="Z53" s="30"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="29"/>
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
@@ -6302,8 +6295,8 @@
       <c r="X54" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="Y54" s="30"/>
-      <c r="Z54" s="30"/>
+      <c r="Y54" s="29"/>
+      <c r="Z54" s="29"/>
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
       <c r="AC54" s="9"/>
@@ -6356,10 +6349,10 @@
       <c r="X55" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="Y55" s="30" t="s">
+      <c r="Y55" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="Z55" s="30" t="s">
+      <c r="Z55" s="29" t="s">
         <v>421</v>
       </c>
       <c r="AA55" s="9"/>
@@ -6411,8 +6404,8 @@
       <c r="X56" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="Y56" s="30"/>
-      <c r="Z56" s="30"/>
+      <c r="Y56" s="29"/>
+      <c r="Z56" s="29"/>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
       <c r="AC56" s="9"/>
@@ -6462,8 +6455,8 @@
       <c r="X57" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="Y57" s="30"/>
-      <c r="Z57" s="30"/>
+      <c r="Y57" s="29"/>
+      <c r="Z57" s="29"/>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
       <c r="AC57" s="9"/>
@@ -6513,8 +6506,8 @@
       <c r="X58" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="Y58" s="30"/>
-      <c r="Z58" s="30"/>
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="29"/>
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
       <c r="AC58" s="9"/>
@@ -6564,8 +6557,8 @@
       <c r="X59" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="Y59" s="30"/>
-      <c r="Z59" s="30"/>
+      <c r="Y59" s="29"/>
+      <c r="Z59" s="29"/>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
       <c r="AC59" s="9"/>
@@ -6602,8 +6595,8 @@
       <c r="X60" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="Y60" s="31"/>
-      <c r="Z60" s="31"/>
+      <c r="Y60" s="30"/>
+      <c r="Z60" s="30"/>
     </row>
     <row r="61" spans="1:42" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
@@ -6644,8 +6637,8 @@
       </c>
       <c r="W61" s="21"/>
       <c r="X61" s="21"/>
-      <c r="Y61" s="32"/>
-      <c r="Z61" s="32"/>
+      <c r="Y61" s="31"/>
+      <c r="Z61" s="31"/>
       <c r="AC61" s="13" t="s">
         <v>444</v>
       </c>
@@ -6668,8 +6661,8 @@
     <row r="65" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="W65" s="11"/>
       <c r="X65" s="11"/>
-      <c r="Y65" s="33"/>
-      <c r="Z65" s="33"/>
+      <c r="Y65" s="32"/>
+      <c r="Z65" s="32"/>
     </row>
     <row r="66" spans="1:26" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
@@ -6694,8 +6687,8 @@
       <c r="T66" s="16"/>
       <c r="W66" s="11"/>
       <c r="X66" s="11"/>
-      <c r="Y66" s="33"/>
-      <c r="Z66" s="33"/>
+      <c r="Y66" s="32"/>
+      <c r="Z66" s="32"/>
     </row>
     <row r="67" spans="1:26" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="17"/>
@@ -6720,8 +6713,8 @@
       <c r="T67" s="16"/>
       <c r="W67" s="11"/>
       <c r="X67" s="11"/>
-      <c r="Y67" s="33"/>
-      <c r="Z67" s="33"/>
+      <c r="Y67" s="32"/>
+      <c r="Z67" s="32"/>
     </row>
     <row r="68" spans="1:26" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="17"/>
@@ -6746,14 +6739,14 @@
       <c r="T68" s="16"/>
       <c r="W68" s="11"/>
       <c r="X68" s="11"/>
-      <c r="Y68" s="33"/>
-      <c r="Z68" s="33"/>
+      <c r="Y68" s="32"/>
+      <c r="Z68" s="32"/>
     </row>
     <row r="69" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="W69" s="11"/>
       <c r="X69" s="11"/>
-      <c r="Y69" s="33"/>
-      <c r="Z69" s="33"/>
+      <c r="Y69" s="32"/>
+      <c r="Z69" s="32"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="W70" s="9"/>
@@ -6827,26 +6820,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="20e84e4d-a6e0-4204-8921-027a38594a8f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8e52b65f-ecd5-48c0-b9f7-52a4214f4c00">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002C60116331F4444D81507146F01AA91D" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc0e76fe1ed77402d7c7d9fdb6db3ceb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8e52b65f-ecd5-48c0-b9f7-52a4214f4c00" xmlns:ns3="20e84e4d-a6e0-4204-8921-027a38594a8f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="670d4f9370d46b8840dd55bcfc25063c" ns2:_="" ns3:_="">
     <xsd:import namespace="8e52b65f-ecd5-48c0-b9f7-52a4214f4c00"/>
@@ -7101,26 +7074,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A07E7910-A5F8-49FA-A66B-AF0496BA89EB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="20e84e4d-a6e0-4204-8921-027a38594a8f"/>
-    <ds:schemaRef ds:uri="8e52b65f-ecd5-48c0-b9f7-52a4214f4c00"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A44B2C33-F183-4F9A-A537-7E27C8E4AF92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="20e84e4d-a6e0-4204-8921-027a38594a8f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8e52b65f-ecd5-48c0-b9f7-52a4214f4c00">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0938380E-1ABD-4939-8B8C-D549CBBE576E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7137,4 +7111,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A44B2C33-F183-4F9A-A537-7E27C8E4AF92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A07E7910-A5F8-49FA-A66B-AF0496BA89EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="20e84e4d-a6e0-4204-8921-027a38594a8f"/>
+    <ds:schemaRef ds:uri="8e52b65f-ecd5-48c0-b9f7-52a4214f4c00"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>